--- a/datasource/Table Schema.xlsx
+++ b/datasource/Table Schema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\datasource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\datasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11445" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11443" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -716,6 +716,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能類別 如三角函數 向量 指數與對數等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -724,7 +740,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>課綱。普高</t>
+      <t>題目類型</t>
     </r>
     <r>
       <rPr>
@@ -733,7 +749,7 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">general </t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -743,7 +759,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>技高</t>
+      <t>例如</t>
     </r>
     <r>
       <rPr>
@@ -752,27 +768,8 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t>vocational</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能類別 如三角函數 向量 指數與對數等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">: text </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -781,7 +778,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>題目類型</t>
+      <t>或</t>
     </r>
     <r>
       <rPr>
@@ -790,7 +787,7 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t xml:space="preserve"> handwriting)</t>
     </r>
     <r>
       <rPr>
@@ -800,100 +797,103 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>例如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills_info</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_curriculum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini_prompt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_prerequisites</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能前置依賴關聯表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用於定義技能之間「多對多」的前置依賴關係。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> handwriting)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>外鍵</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>prerequisite_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills_info</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_curriculum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini_prompt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_prerequisites</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能前置依賴關聯表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用於定義技能之間「多對多」的前置依賴關係。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>外鍵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>外鍵</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>指向</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <t>prerequisite_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> `skills_info`</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -902,16 +902,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>外鍵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
+      <t>，代表「基礎技能」。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -943,11 +934,8 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>，代表「基礎技能」。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>，代表「目前</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -956,36 +944,67 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>指向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> `skills_info`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>技能」。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>，代表「目前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>課綱。普高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">general </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF1B1C1D"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>技能」。</t>
+      <t>技高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vocational </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>junior_high</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1316,6 +1335,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,9 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,20 +1639,20 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="6.23046875" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" customWidth="1"/>
+    <col min="4" max="4" width="15.23046875" customWidth="1"/>
+    <col min="5" max="5" width="27.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="12" t="s">
         <v>82</v>
       </c>
@@ -1644,7 +1663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25">
+    <row r="2" spans="1:5" ht="32.15">
       <c r="A2" s="17" t="s">
         <v>86</v>
       </c>
@@ -1654,10 +1673,10 @@
       <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="48.75" customHeight="1">
       <c r="A3" s="1">
@@ -1669,10 +1688,10 @@
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="48.75" customHeight="1">
       <c r="A4" s="1">
@@ -1684,10 +1703,10 @@
       <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="48.75" customHeight="1">
       <c r="A5" s="1">
@@ -1699,10 +1718,10 @@
       <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="48.75" customHeight="1">
       <c r="A6" s="1">
@@ -1714,10 +1733,10 @@
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1741,12 +1760,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.3828125" customWidth="1"/>
+    <col min="3" max="3" width="16.61328125" customWidth="1"/>
+    <col min="4" max="4" width="41.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
@@ -1767,11 +1786,11 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1872,11 +1891,11 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1898,11 +1917,11 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2047,11 +2066,11 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2060,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
@@ -2073,11 +2092,11 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2137,7 +2156,7 @@
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -2146,7 +2165,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.75" customHeight="1">
@@ -2165,7 +2184,7 @@
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
@@ -2174,12 +2193,12 @@
         <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -2246,15 +2265,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="21.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2263,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
@@ -2276,11 +2295,11 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2335,12 +2354,12 @@
         <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -2352,7 +2371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.1" customHeight="1">
+    <row r="8" spans="1:4" ht="26.15" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>70</v>
       </c>
@@ -2464,41 +2483,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" customWidth="1"/>
+    <col min="2" max="2" width="22.4609375" customWidth="1"/>
+    <col min="3" max="3" width="16.61328125" customWidth="1"/>
+    <col min="4" max="4" width="41.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>116</v>
+      <c r="B1" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2536,24 +2555,24 @@
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1"/>
@@ -2563,5 +2582,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>